--- a/biology/Botanique/Mammillaria/Mammillaria.xlsx
+++ b/biology/Botanique/Mammillaria/Mammillaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mammillaria est un genre majeur de la famille des Cactaceae. Il est composé d'environ 180 espèces.
 Ces espèces de cactus sont le plus souvent originaires du Mexique et du sud des États-Unis, certaines proviennent des Antilles, des Bahamas, de Cuba, du Guatemala, du Nicaragua, de Porto Rico, de la République Dominicaine, de Trinidad et Tobago et enfin du Venezuela.
@@ -512,11 +524,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est en 1812 que le botaniste spécialisé en cactus Adrian Haworth décrit le genre Mammillaria en tant que tel. L'espèce-type est Mammillaria mammillaris (L.) H.Karst. (que Haworth avait nommé à tort Mammillaria simplex).
 La première description de Mammillaria mammillaris a été faite en 1753 par Carl von Linné en tant que Cactus mamillaris.
-Le nom vient du latin « mamilla[1] », c'est-à-dire « mamelle », en raison de la forme des tubercules des espèces composant ce genre.
+Le nom vient du latin « mamilla », c'est-à-dire « mamelle », en raison de la forme des tubercules des espèces composant ce genre.
 Ses espèces sont parfois appelées « cactus hameçon » en raison de la forme recourbée des épines de certaines d'entre elles, ou encore « cactus pelote » en raison de l'apparence générale un peu laineuse.
 </t>
         </is>
@@ -546,7 +560,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Mammillaria sont appréciées des amateurs en raison de leurs fleurs et de leurs épines de couleurs et de formes variées. La plupart sont faciles à cultiver et à faire fleurir.
 Plusieurs espèces, telles que Mammillaria zeilmanniana sont menacées dans leur habitat naturel en raison de la destruction de leur milieu et de cueillettes excessives. Alors qu'on les trouve souvent en culture.
@@ -578,7 +594,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La caractéristique essentielle est le développement des aréoles en deux parties :
 Le sommet de l'aréole porte des aiguillons, souvent recourbés en forme d'hameçon.
@@ -617,10 +635,50 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hiérarchie supragénérique
-Le genre Mammillaria est placé dans la tribu des Cacteae dans plusieurs classifications, notamment la classification phylogénétique.
-Hiérarchie infragénérique
-Le genre Mammillaria a compté jusqu'à 500 espèces, se différenciant parfois par des critères mineurs.
+          <t>Hiérarchie supragénérique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Mammillaria est placé dans la tribu des Cacteae dans plusieurs classifications, notamment la classification phylogénétique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mammillaria</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mammillaria</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Hiérarchie infragénérique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Mammillaria a compté jusqu'à 500 espèces, se différenciant parfois par des critères mineurs.
 La tendance a été de réduire ce nombre qui a été ramené à moins de 200. Les genres Coryphantha, Ariocarpus, Escobaria et Mammilloydia en ont été extraits.
 À l'inverse, les genres Dolichothele, Mammillopsis, Krainzia ont été intégrés à Mammillaria.
 Enfin certaines espèces ont été abaissées au rang de sous-espèces.
@@ -629,31 +687,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Mammillaria</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Mammillaria</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Mammillaria albicoma Boed.
 Mammillaria albiflora Backeb.
@@ -791,32 +851,6 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Mammillaria</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Mammillaria</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Synonymes</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-    </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
@@ -838,10 +872,40 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Mammillaria</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mammillaria</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Mode de culture</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour les espèces courantes, un substrat composé de 1/3 de terre, 1/3 de terreau et 1/3 d'éléments drainants convient parfaitement.
 Pour les voir fleurir, offrez-leur une période de repos en hiver à une température de 3/5 °C durant laquelle ils ne recevront pas d'eau ou très peu. 
